--- a/biology/Botanique/Frederick_Vernon_Coville/Frederick_Vernon_Coville.xlsx
+++ b/biology/Botanique/Frederick_Vernon_Coville/Frederick_Vernon_Coville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Vernon Coville est un botaniste américain, né le 23 mars 1867 à Preston (New York) et mort le 9 janvier 1937 (à 69 ans) à Washington D.C..
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est le fils de Joseph Addison et de Lydia née More. Il obtient son baccalauréat universitaire ès lettres (Bachelor of Arts) à l’université Cornell en 1887. Coville se marie avec Elizabeth Harwood Boynton le 4 octobre 1890. Il travaille à l’institut de botanique de l’université Cornell de 1887 à 1888, puis devient assistant botaniste au Département de l'Agriculture des États-Unis de 1888 à 1893, puis botaniste de 1893 à 1937. Il est conservateur de l’herbier national des États-Unis de 1893 à 1937. En 1921, l’université George Washington lui décerne un doctorat de sciences.
 Membre de l’American Academy of Arts and Sciences, il fait paraître :
